--- a/Customer3.xlsx
+++ b/Customer3.xlsx
@@ -16,12 +16,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>"12-may-2014"</t>
   </si>
   <si>
     <t>"5/12/2014"</t>
+  </si>
+  <si>
+    <t>"5/11/2016"</t>
+  </si>
+  <si>
+    <t>"15/02/2015"</t>
+  </si>
+  <si>
+    <t>"6/08/2014"</t>
+  </si>
+  <si>
+    <t>"3/05/2013"</t>
+  </si>
+  <si>
+    <t>"23/12/2012"</t>
+  </si>
+  <si>
+    <t>"14/08/2014"</t>
+  </si>
+  <si>
+    <t>"5/10/2011"</t>
+  </si>
+  <si>
+    <t>"15/11/2015"</t>
+  </si>
+  <si>
+    <t>"3/12/2012"</t>
+  </si>
+  <si>
+    <t>"2/04/2013"</t>
+  </si>
+  <si>
+    <t>"18/09/2014"</t>
+  </si>
+  <si>
+    <t>"6/02/2012"</t>
+  </si>
+  <si>
+    <t>"5/08/2015"</t>
+  </si>
+  <si>
+    <t>"2/11/2014"</t>
+  </si>
+  <si>
+    <t>"5/09/2014"</t>
+  </si>
+  <si>
+    <t>"7/02/2014"</t>
+  </si>
+  <si>
+    <t>"3/12/2013"</t>
+  </si>
+  <si>
+    <t>"5/01/2015"</t>
   </si>
 </sst>
 </file>
@@ -357,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -394,14 +448,11 @@
       <c r="B2">
         <v>875689</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>456</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3255</v>
       </c>
       <c r="F2">
         <v>789</v>
@@ -415,36 +466,30 @@
         <v>785632</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>4563700150778560</v>
       </c>
-      <c r="B4">
-        <v>785632</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -452,19 +497,19 @@
         <v>4563700150265230</v>
       </c>
       <c r="B5">
-        <v>785632</v>
+        <v>786432</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -472,19 +517,19 @@
         <v>4563700150265890</v>
       </c>
       <c r="B6">
-        <v>785632</v>
+        <v>777632</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -492,19 +537,17 @@
         <v>4563700150203850</v>
       </c>
       <c r="B7">
-        <v>785632</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>785689</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -512,19 +555,19 @@
         <v>4563700150326790</v>
       </c>
       <c r="B8">
-        <v>785632</v>
+        <v>865632</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3255</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -532,19 +575,19 @@
         <v>4563700150204630</v>
       </c>
       <c r="B9">
-        <v>785632</v>
+        <v>782032</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -552,19 +595,17 @@
         <v>4563700157456980</v>
       </c>
       <c r="B10">
-        <v>785632</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>700632</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -572,19 +613,19 @@
         <v>4563700150235910</v>
       </c>
       <c r="B11">
-        <v>785632</v>
+        <v>722232</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -592,19 +633,19 @@
         <v>4563700150796530</v>
       </c>
       <c r="B12">
-        <v>785632</v>
+        <v>780052</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -612,39 +653,36 @@
         <v>4563700153652480</v>
       </c>
       <c r="B13">
-        <v>785632</v>
+        <v>985630</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>4561</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>4563700150256280</v>
-      </c>
       <c r="B14">
-        <v>785632</v>
+        <v>878332</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -652,19 +690,16 @@
         <v>4563700150209100</v>
       </c>
       <c r="B15">
-        <v>785632</v>
+        <v>995632</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -672,19 +707,16 @@
         <v>4563700152778960</v>
       </c>
       <c r="B16">
-        <v>785632</v>
+        <v>700632</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>4564</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -692,19 +724,19 @@
         <v>4563700150003220</v>
       </c>
       <c r="B17">
-        <v>785632</v>
+        <v>856632</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>8456</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>9323</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -712,19 +744,17 @@
         <v>4563700165823140</v>
       </c>
       <c r="B18">
-        <v>785632</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>794453</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -732,19 +762,19 @@
         <v>4563700140088690</v>
       </c>
       <c r="B19">
-        <v>785632</v>
+        <v>786332</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -752,19 +782,19 @@
         <v>4563700150200030</v>
       </c>
       <c r="B20">
-        <v>785632</v>
+        <v>785693</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>9456</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -772,19 +802,16 @@
         <v>4563700150255660</v>
       </c>
       <c r="B21">
-        <v>785632</v>
+        <v>785964</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -792,19 +819,14 @@
         <v>4563700150778990</v>
       </c>
       <c r="B22">
-        <v>785632</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>765698</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -812,19 +834,19 @@
         <v>4563700150266990</v>
       </c>
       <c r="B23">
-        <v>785632</v>
+        <v>785635</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>6456</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>65748</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -832,19 +854,19 @@
         <v>4563700150203340</v>
       </c>
       <c r="B24">
-        <v>785632</v>
+        <v>785643</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -852,19 +874,19 @@
         <v>4563700150203440</v>
       </c>
       <c r="B25">
-        <v>785632</v>
+        <v>784600</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -872,39 +894,33 @@
         <v>4563700150203320</v>
       </c>
       <c r="B26">
-        <v>785632</v>
+        <v>789634</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3456</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2">
-        <v>4563700150744770</v>
-      </c>
       <c r="B27">
-        <v>785632</v>
+        <v>785648</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -912,404 +928,384 @@
         <v>4563700150266880</v>
       </c>
       <c r="B28">
-        <v>785632</v>
+        <v>785646</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>5456</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>5355</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="2">
-        <v>4563700150203110</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B29">
-        <v>785632</v>
+        <v>745632</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>6534</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="2">
-        <v>4563700150204110</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B30">
-        <v>785632</v>
+        <v>856302</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="2">
-        <v>4563700150222770</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B31">
-        <v>785632</v>
+        <v>996432</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>5456</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2">
-        <v>4563700150204560</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B32">
-        <v>785632</v>
+        <v>997856</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2">
-        <v>4563700150201440</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B33">
-        <v>785632</v>
+        <v>978563</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>6456</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2">
-        <v>4563700150203330</v>
-      </c>
-      <c r="B34">
-        <v>785632</v>
+        <v>4563700150266880</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3535</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>53434</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2">
-        <v>4.5637001502039904E+16</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B35">
-        <v>785632</v>
+        <v>784560</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2">
-        <v>456370015020323</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B36">
-        <v>785632</v>
+        <v>856389</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>57645</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2">
-        <v>4563700150203230</v>
-      </c>
-      <c r="B37">
-        <v>785632</v>
+        <v>4563700150266880</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>6456</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>565674</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2">
-        <v>4563700150203230</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B38">
-        <v>785632</v>
+        <v>852633</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2">
-        <v>4563700150203230</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B39">
-        <v>785632</v>
+        <v>856967</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2">
-        <v>4563700150203230</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B40">
-        <v>785632</v>
+        <v>978663</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2">
-        <v>4563700150203230</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B41">
-        <v>785632</v>
+        <v>968564</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>4566</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>54344</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2">
-        <v>4563700150203230</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B42">
-        <v>785632</v>
+        <v>878555</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5354</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2">
-        <v>4563700150203230</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B43">
-        <v>785632</v>
+        <v>856366</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
+        <v>5685</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2">
-        <v>4563700150203230</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B44">
-        <v>785632</v>
+        <v>956365</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>537435</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2">
-        <v>4563700150203230</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B45">
-        <v>785632</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>900856</v>
+      </c>
+      <c r="C45" s="1"/>
       <c r="D45">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2">
-        <v>4563700150203230</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B46">
-        <v>785632</v>
+        <v>897856</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2">
-        <v>4563700150203230</v>
-      </c>
-      <c r="B47">
-        <v>785632</v>
+        <v>4563700150266880</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>56757</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2">
-        <v>4563700150203230</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B48">
         <v>785632</v>
@@ -1318,38 +1314,35 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2">
-        <v>4563700150203230</v>
-      </c>
-      <c r="B49">
-        <v>785632</v>
+        <v>4563700150266880</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>4433</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>53434</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2">
-        <v>4563700150203230</v>
+        <v>4563700150266880</v>
       </c>
       <c r="B50">
         <v>785632</v>
@@ -1358,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>5354</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
